--- a/medicine/Enfance/Page_Blanche_(collection)/Page_Blanche_(collection).xlsx
+++ b/medicine/Enfance/Page_Blanche_(collection)/Page_Blanche_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Page Blanche est une ancienne collection française de littérature d'enfance et de jeunesse des éditions Gallimard, active de 1987 à 2000, destinée aux adolescents. La collection « Scripto » lui fait suite en 2002[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Page Blanche est une ancienne collection française de littérature d'enfance et de jeunesse des éditions Gallimard, active de 1987 à 2000, destinée aux adolescents. La collection « Scripto » lui fait suite en 2002.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection est créée en 1987 par Geneviève Brisac[1]. Elle la dirige jusqu'en 1989, puis Claude Gutman prend la relève jusqu'en 1995, et Jean-Philippe Arrou-Vignod jusqu’en 2000. Son objectif est de publier des romans nouveaux pour les adolescents. Elle cible un lectorat plus âgé que celui de Folio Junior, rééditant quelques titres plus appropriés à la collection, et ne cherche pas à rééditer des classiques mais à promouvoir des récits actuels, souvent autour de l'histoire contemporaine. On y retrouve aussi bien des auteurs pour la jeunesse que des auteurs de polars. La collection privilégie les auteurs français, mais cherche aussi à faire connaître quelques auteurs étrangers.
-Toutes les couvertures de la collection sont illustrées par Yan Nascimbene[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection est créée en 1987 par Geneviève Brisac. Elle la dirige jusqu'en 1989, puis Claude Gutman prend la relève jusqu'en 1995, et Jean-Philippe Arrou-Vignod jusqu’en 2000. Son objectif est de publier des romans nouveaux pour les adolescents. Elle cible un lectorat plus âgé que celui de Folio Junior, rééditant quelques titres plus appropriés à la collection, et ne cherche pas à rééditer des classiques mais à promouvoir des récits actuels, souvent autour de l'histoire contemporaine. On y retrouve aussi bien des auteurs pour la jeunesse que des auteurs de polars. La collection privilégie les auteurs français, mais cherche aussi à faire connaître quelques auteurs étrangers.
+Toutes les couvertures de la collection sont illustrées par Yan Nascimbene.
 D'abord de format 11x20 cm, elle passe à 12,5x18 cm à la fin des années 1990.
-La collection « Page Blanche » compte près de 170 titres. Elle est arrêtée en 2000. La collection Scripto a pris sa suite à partir de 2002[1].
-La revue Les Cahiers Robinson1 (Université d’Artois) a publié dans son numéro 31 en 2012 un dossier coordonné par Éléonore Hamaide-Jager, consacré à la collection Page Blanche[3]. À l'occasion de la parution de ce numéro, la revue en ligne Streanae a publié la liste complète des ouvrages publiés, par ordre chronologique de parution, par ordre alphabétique d'auteurs et par ordre alphabétique de titres[4].
+La collection « Page Blanche » compte près de 170 titres. Elle est arrêtée en 2000. La collection Scripto a pris sa suite à partir de 2002.
+La revue Les Cahiers Robinson1 (Université d’Artois) a publié dans son numéro 31 en 2012 un dossier coordonné par Éléonore Hamaide-Jager, consacré à la collection Page Blanche. À l'occasion de la parution de ce numéro, la revue en ligne Streanae a publié la liste complète des ouvrages publiés, par ordre chronologique de parution, par ordre alphabétique d'auteurs et par ordre alphabétique de titres.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Natalie Babbitt, Les Yeux de l'amaryllis
